--- a/biology/Zoologie/Dismorphia/Dismorphia.xlsx
+++ b/biology/Zoologie/Dismorphia/Dismorphia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Dismorphia regroupe des lépidoptères (papillons) de la famille des Pieridae et de la sous-famille des Dismorphiinae qui résident en Amérique, Amérique du Sud et Amérique centrale.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dismorphia a été nommé par Jakob Hübner en 1816.
 Synonymie : Acaptera Billberg, 1820; Leptalis Dalman, 1823; Hemerocharis Boisduval, 1836;
@@ -543,37 +557,39 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dismorphia altis Fassl, 1910
-Dismorphia amphione (Cramer, [1779])
+Dismorphia amphione (Cramer, )
 Dismorphia arcadia (C. &amp; R. Felder, 1862)
-Dismorphia astyocha Hübner, [1831]
+Dismorphia astyocha Hübner, 
 Dismorphia boliviana Forster, 1955
-Dismorphia crisia (Drury, [1782])
+Dismorphia crisia (Drury, )
 Dismorphia cubana (Herrich-Schäffer, 1862)
 Dismorphia eunoe (Doubleday, 1844)
 Dismorphia hyposticta (C. &amp; R. Felder, 1861)
-Dismorphia laja (Cramer, [1779])
+Dismorphia laja (Cramer, )
 Dismorphia lelex (Hewitson, 1869)
 Dismorphia lewyi (Lucas, 1852)
 Dismorphia lua (Hewitson, 1869)
-Dismorphia lycosura (Hewitson, [1860])
+Dismorphia lycosura (Hewitson, )
 Dismorphia lygdamis (Hewitson, 1869)
 Dismorphia lysis (Hewitson, 1869)
 Dismorphia medora (Doubleday, 1844)
 Dismorphia medorilla (Hewitson, 1877)
-Dismorphia melia (Godart, [1824])
+Dismorphia melia (Godart, )
 Dismorphia mirandola (Hewitson, 1876)
 Dismorphia niepelti Wyemer, 1909
 Dismorphia pseudolewyi Forster, 1955
-Dismorphia spio (Godart, [1824])
+Dismorphia spio (Godart, )
 Dismorphia teresa (Hewitson, 1869)
 Dismorphia thermesia (Godart, 1819)
 Dismorphia thermesina (Hopffer, 1874)
 Dismorphia theucharila (Doubleday, 1848)
-Dismorphia zaela (Hewitson, [1858])
-Dismorphia zathoe (Hewitson, [1858])</t>
+Dismorphia zaela (Hewitson, )
+Dismorphia zathoe (Hewitson, )</t>
         </is>
       </c>
     </row>
